--- a/static/周报材料/cnfeol3.xlsx
+++ b/static/周报材料/cnfeol3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,80 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>牌号</t>
-  </si>
-  <si>
-    <t>5月31日</t>
-  </si>
-  <si>
-    <t>6月6日</t>
-  </si>
-  <si>
-    <t>涨跌</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>硅锰</t>
-  </si>
-  <si>
-    <t>6517#</t>
-  </si>
-  <si>
-    <t>7200-7300</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>广西，现金含税</t>
-  </si>
-  <si>
-    <t>7100-7200</t>
-  </si>
-  <si>
-    <t>↑100</t>
-  </si>
-  <si>
-    <t>宁夏，现金含税</t>
-  </si>
-  <si>
-    <t>7100-7150</t>
-  </si>
-  <si>
-    <t>内蒙，现金含税</t>
-  </si>
-  <si>
-    <t>6014#</t>
-  </si>
-  <si>
-    <t>5700-5800</t>
-  </si>
-  <si>
-    <t>5850-5900</t>
-  </si>
-  <si>
-    <t>桂林,出厂不含税</t>
-  </si>
-  <si>
-    <t>6028#</t>
-  </si>
-  <si>
-    <t>8750-8850</t>
-  </si>
-  <si>
-    <t>宁夏</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -118,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -419,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,127 +353,456 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 产品</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 牌号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3月20日</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3月27日</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 涨跌</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 港口</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 澳块（South 32）</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn45-46%fe5%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40-41</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48-49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 澳块（South 32）</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn45-46%fe5%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 39</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48-49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 澳籽</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn46-48%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 39-39.5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 澳籽</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn46-48%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 36</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 44-45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑8.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 南非块</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn36-37%fe5%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 36.5-37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 43-45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 南非块</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn36-37%fe5%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 南非高铁块</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn32-34%fe20%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 南非高铁块</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn32-34%Fe20%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 加蓬块</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn45%fe5%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37.5-38</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 加蓬块</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn45%fe5%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 马来西亚锰矿</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn24-25%siO2&gt;25%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 钦州港</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 马来西亚锰矿</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn26-27%Si&gt;25%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 赞比亚锰矿</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mn&gt;53%Fe&lt;5%P0.03%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 天津港
+ </t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>